--- a/monet/tests/TestData/control/power_database.xlsx
+++ b/monet/tests/TestData/control/power_database.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,33 +502,122 @@
           <t>DefaultMicroscope</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>488</v>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>19:13</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100.6808247280506</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>100.4032410935742</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/monet/tests/TestData/control/power_database.xlsx
+++ b/monet/tests/TestData/control/power_database.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:44</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -543,7 +543,7 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:44</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:44</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:44</t>
         </is>
       </c>
       <c r="F5" t="n">

--- a/monet/tests/TestData/control/power_database.xlsx
+++ b/monet/tests/TestData/control/power_database.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -543,7 +543,7 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>15:44</t>
+          <t>16:16</t>
         </is>
       </c>
       <c r="F5" t="n">

--- a/monet/tests/TestData/control/power_database.xlsx
+++ b/monet/tests/TestData/control/power_database.xlsx
@@ -512,12 +512,12 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -538,12 +538,12 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -568,12 +568,12 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -594,12 +594,12 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>16:16</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="F5" t="n">
